--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41FAF6E-5376-468B-A877-959A438794EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F202F-0CF2-4900-8D77-990F64975671}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,15 +185,31 @@
     <t>手動驗證</t>
   </si>
   <si>
-    <t>LOGO區塊、新增文章按鈕、會員區塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>--</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增圖片需判斷圖片是否已經存在。</t>
+    <t>2018-08-09 會員區塊需依照登入狀態改變(Layout埋renderSection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-09 新增圖片需判斷圖片是否已經存在。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-08 LOGO區塊、新增文章按鈕、會員區塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待處理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +231,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +294,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,17 +626,17 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
     <col min="3" max="4" width="8.796875" style="3"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="57.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="62.296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -640,16 +670,16 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -662,7 +692,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>31</v>
@@ -671,33 +701,35 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -748,25 +780,26 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1019,7 +1052,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
@@ -1030,17 +1063,35 @@
       <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="13">
+        <v>43320</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="3">
         <f>SUM(E3:E19)</f>
         <v>36</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <f>E3+E4+E5+E19+E7</f>
+        <v>12</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="3">
-        <v>8</v>
+      <c r="D23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E21-E22</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F202F-0CF2-4900-8D77-990F64975671}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA95FAC-2195-4D63-A2BA-8C9AF2474438}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>待處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已耗費工時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估工時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩餘工時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,18 +307,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -345,16 +399,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE735197-F0A4-489E-8C2A-60C7A15B1FF7}" name="表格1" displayName="表格1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE735197-F0A4-489E-8C2A-60C7A15B1FF7}" name="表格1" displayName="表格1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:G19" xr:uid="{BC8B2A3B-C4A2-426E-8D0D-249FFE6170D0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1B8F90C3-B368-4EE2-918E-D1488377629D}" name="編號" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{1B8F90C3-B368-4EE2-918E-D1488377629D}" name="編號" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{D0A77E2C-D827-4458-9C92-25FB3A895775}" name="功能"/>
-    <tableColumn id="3" xr3:uid="{CF9A90A7-9B7A-4432-A76C-7206F4E9B585}" name="前置" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{104C7AD7-6526-45E9-9FAA-337C3B8EC477}" name="類型" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4F2BC461-3898-47F1-93C9-638BAA50E597}" name="預計工時(hr)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E5C936A0-B501-4604-B5CD-F2A0B8D7FE5D}" name="驗證方式" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{18901123-DC43-4347-9DA8-15345519803B}" name="備註" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CF9A90A7-9B7A-4432-A76C-7206F4E9B585}" name="前置" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{104C7AD7-6526-45E9-9FAA-337C3B8EC477}" name="類型" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4F2BC461-3898-47F1-93C9-638BAA50E597}" name="預計工時(hr)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E5C936A0-B501-4604-B5CD-F2A0B8D7FE5D}" name="驗證方式" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{18901123-DC43-4347-9DA8-15345519803B}" name="備註" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -727,7 +781,7 @@
       <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1063,39 +1117,85 @@
       <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="15">
         <v>43320</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13">
+        <v>40</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="13">
+        <f>SUM(E2:E19)</f>
+        <v>36</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3">
-        <f>SUM(E3:E19)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="14" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="13">
+        <f>4+8</f>
+        <v>12</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E21" s="13">
         <f>E3+E4+E5+E19+E7</f>
         <v>12</v>
       </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13">
+        <f>C20-C21</f>
+        <v>28</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3">
+        <f>E20-E21</f>
+        <v>24</v>
+      </c>
+      <c r="F22" s="17" t="str">
+        <f>IF(C22&gt;=E22,"Safe","Danger")</f>
+        <v>Safe</v>
+      </c>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="3">
-        <f>E21-E22</f>
-        <v>24</v>
-      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Danger"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Danger"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA95FAC-2195-4D63-A2BA-8C9AF2474438}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F9D433-50F8-48EA-8D96-7BBC18ADA108}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼欄位是否需要驗證、修改需判斷Hidden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不允許使用Html語法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,15 +209,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已耗費工時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估工時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩餘工時</t>
+    <t>密碼若有填寫才修改，無填寫不修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際工時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,12 +322,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -344,17 +360,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -399,13 +404,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE735197-F0A4-489E-8C2A-60C7A15B1FF7}" name="表格1" displayName="表格1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:G19" xr:uid="{BC8B2A3B-C4A2-426E-8D0D-249FFE6170D0}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE735197-F0A4-489E-8C2A-60C7A15B1FF7}" name="表格1" displayName="表格1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H19" xr:uid="{BC8B2A3B-C4A2-426E-8D0D-249FFE6170D0}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B8F90C3-B368-4EE2-918E-D1488377629D}" name="編號" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{D0A77E2C-D827-4458-9C92-25FB3A895775}" name="功能"/>
     <tableColumn id="3" xr3:uid="{CF9A90A7-9B7A-4432-A76C-7206F4E9B585}" name="前置" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{104C7AD7-6526-45E9-9FAA-337C3B8EC477}" name="類型" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{9099472A-05A7-433E-931F-932E036A4796}" name="實際工時" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{4F2BC461-3898-47F1-93C9-638BAA50E597}" name="預計工時(hr)" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{E5C936A0-B501-4604-B5CD-F2A0B8D7FE5D}" name="驗證方式" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{18901123-DC43-4347-9DA8-15345519803B}" name="備註" dataDxfId="3"/>
@@ -677,23 +683,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" style="3"/>
-    <col min="5" max="5" width="6.8984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" customWidth="1"/>
-    <col min="7" max="7" width="62.296875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.796875" style="3"/>
+    <col min="6" max="6" width="6.8984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="8" max="8" width="62.296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -707,16 +713,19 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -724,20 +733,23 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>1</v>
@@ -746,22 +758,25 @@
         <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>2</v>
@@ -775,17 +790,20 @@
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -799,41 +817,47 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="21">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>37</v>
+      <c r="F5" s="9">
+        <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="21">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -847,15 +871,18 @@
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="21">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>A7+1</f>
         <v>6</v>
@@ -869,17 +896,18 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="22"/>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -893,17 +921,18 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="22"/>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -917,14 +946,15 @@
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="22"/>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -938,14 +968,15 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="22"/>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -959,14 +990,15 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="22"/>
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -980,17 +1012,18 @@
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="22"/>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1004,14 +1037,15 @@
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="22"/>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1025,14 +1059,15 @@
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="22"/>
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1046,14 +1081,15 @@
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="22"/>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1067,20 +1103,21 @@
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="22"/>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
@@ -1088,17 +1125,18 @@
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="22"/>
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1106,93 +1144,96 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="21">
         <v>4</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="15">
+      <c r="H19" s="15">
         <v>43320</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="19"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="19">
         <v>40</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="F20" s="13">
+        <f>SUM(F2:F19)</f>
+        <v>36</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="13">
-        <f>SUM(E2:E19)</f>
-        <v>36</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="13">
-        <f>4+8</f>
-        <v>12</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="E21" s="19">
+        <f>SUM(E3:E19)</f>
+        <v>17</v>
+      </c>
+      <c r="F21" s="23">
+        <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="13">
-        <f>E3+E4+E5+E19+E7</f>
-        <v>12</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="13">
-        <f>C20-C21</f>
-        <v>28</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="E22" s="16">
         <f>E20-E21</f>
-        <v>24</v>
-      </c>
-      <c r="F22" s="17" t="str">
-        <f>IF(C22&gt;=E22,"Safe","Danger")</f>
+        <v>23</v>
+      </c>
+      <c r="F22" s="3">
+        <f>F20-F21</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="17" t="str">
+        <f>IF(F22&lt;=E22,"Safe","Danger")</f>
         <v>Safe</v>
       </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Danger"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Danger"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F9D433-50F8-48EA-8D96-7BBC18ADA108}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AFF2A3-658D-4008-99B6-BB63613F9809}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-08-09 新增圖片需判斷圖片是否已經存在。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08-08 LOGO區塊、新增文章按鈕、會員區塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,15 +205,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼若有填寫才修改，無填寫不修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>實際工時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-09 新增圖片需判斷圖片是否已經存在。
+2018-08-10 註冊會員直接登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-10 密碼若有填寫才修改，無填寫不修改
+2018-08-10 新密碼不可與歷史密碼相同
+2018-08-10 修改密碼錯誤需於UI提示
+2018-08-10 允許管理者修改他人密碼
+2018-08-10 修改自己的密碼才更新Session
+2018-08-10 無權限修改返回首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,9 +324,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -338,6 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -713,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
@@ -738,8 +755,8 @@
       <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>48</v>
+      <c r="E2" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>39</v>
@@ -763,7 +780,7 @@
       <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
       <c r="F3" s="9">
@@ -773,7 +790,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -790,7 +807,7 @@
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -803,7 +820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -817,7 +834,7 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>4</v>
       </c>
       <c r="F5" s="9">
@@ -827,10 +844,10 @@
         <v>36</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="87" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -844,8 +861,8 @@
       <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="21">
-        <v>5</v>
+      <c r="E6" s="20">
+        <v>8</v>
       </c>
       <c r="F6" s="9">
         <v>4</v>
@@ -853,8 +870,8 @@
       <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>46</v>
+      <c r="H6" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -871,7 +888,7 @@
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="9">
@@ -880,7 +897,9 @@
       <c r="G7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -896,7 +915,7 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="3">
         <v>1</v>
       </c>
@@ -921,7 +940,7 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="3">
         <v>2</v>
       </c>
@@ -946,7 +965,7 @@
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
@@ -968,7 +987,7 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="3">
         <v>1</v>
       </c>
@@ -990,7 +1009,7 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="3">
         <v>4</v>
       </c>
@@ -1012,7 +1031,7 @@
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="3">
         <v>2</v>
       </c>
@@ -1037,7 +1056,7 @@
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="3">
         <v>1</v>
       </c>
@@ -1059,7 +1078,7 @@
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="3">
         <v>1</v>
       </c>
@@ -1081,7 +1100,7 @@
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="3">
         <v>2</v>
       </c>
@@ -1103,7 +1122,7 @@
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1125,7 +1144,7 @@
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="3">
         <v>4</v>
       </c>
@@ -1149,7 +1168,7 @@
       <c r="D19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>4</v>
       </c>
       <c r="F19" s="9">
@@ -1158,76 +1177,75 @@
       <c r="G19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="15">
-        <v>43320</v>
+      <c r="H19" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18">
         <v>40</v>
       </c>
       <c r="F20" s="13">
         <f>SUM(F2:F19)</f>
         <v>36</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>17</v>
-      </c>
-      <c r="F21" s="23">
+        <v>20</v>
+      </c>
+      <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
         <v>16</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
         <v>20</v>
       </c>
-      <c r="G22" s="17" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>
         <v>Safe</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AFF2A3-658D-4008-99B6-BB63613F9809}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FD599-ADEE-4BCA-A29D-621C2278B0D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
 2018-08-10 允許管理者修改他人密碼
 2018-08-10 修改自己的密碼才更新Session
 2018-08-10 無權限修改返回首頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-10 取得會員資料呈現</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +266,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,14 +366,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -383,30 +429,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -421,17 +443,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE735197-F0A4-489E-8C2A-60C7A15B1FF7}" name="表格1" displayName="表格1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE735197-F0A4-489E-8C2A-60C7A15B1FF7}" name="表格1" displayName="表格1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:H19" xr:uid="{BC8B2A3B-C4A2-426E-8D0D-249FFE6170D0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1B8F90C3-B368-4EE2-918E-D1488377629D}" name="編號" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1B8F90C3-B368-4EE2-918E-D1488377629D}" name="編號" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{D0A77E2C-D827-4458-9C92-25FB3A895775}" name="功能"/>
-    <tableColumn id="3" xr3:uid="{CF9A90A7-9B7A-4432-A76C-7206F4E9B585}" name="前置" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{104C7AD7-6526-45E9-9FAA-337C3B8EC477}" name="類型" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{9099472A-05A7-433E-931F-932E036A4796}" name="實際工時" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{4F2BC461-3898-47F1-93C9-638BAA50E597}" name="預計工時(hr)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E5C936A0-B501-4604-B5CD-F2A0B8D7FE5D}" name="驗證方式" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{18901123-DC43-4347-9DA8-15345519803B}" name="備註" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CF9A90A7-9B7A-4432-A76C-7206F4E9B585}" name="前置" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{104C7AD7-6526-45E9-9FAA-337C3B8EC477}" name="類型" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9099472A-05A7-433E-931F-932E036A4796}" name="實際工時" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4F2BC461-3898-47F1-93C9-638BAA50E597}" name="預計工時(hr)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E5C936A0-B501-4604-B5CD-F2A0B8D7FE5D}" name="驗證方式" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{18901123-DC43-4347-9DA8-15345519803B}" name="備註" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="9">
         <v>4</v>
@@ -1091,21 +1113,26 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="26">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="3">
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="26">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="28" t="s">
         <v>36</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1211,7 +1238,7 @@
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
@@ -1229,7 +1256,7 @@
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>
@@ -1248,10 +1275,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Danger"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Danger"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FD599-ADEE-4BCA-A29D-621C2278B0D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA25925-7307-47C9-A4C3-45C474C43DAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,11 @@
   <si>
     <t>2018-08-09 新增圖片需判斷圖片是否已經存在。
 2018-08-10 註冊會員直接登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-10 取得會員資料呈現
+2018-08-13 調整UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,11 +236,12 @@
 2018-08-10 修改密碼錯誤需於UI提示
 2018-08-10 允許管理者修改他人密碼
 2018-08-10 修改自己的密碼才更新Session
-2018-08-10 無權限修改返回首頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-08-10 取得會員資料呈現</t>
+2018-08-10 無權限修改返回首頁
+2018-08-13 修改完畢之後跳轉頁面會依照來源返回頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 停權會員、啟用會員 OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +272,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +282,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,18 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -724,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -869,7 +857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="87" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -893,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1108,53 +1096,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="27">
-        <v>1</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="E16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>51</v>
+      <c r="H16" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="9">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="3">
+      <c r="E17" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>36</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1234,11 +1227,11 @@
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
@@ -1252,11 +1245,11 @@
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA25925-7307-47C9-A4C3-45C474C43DAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B1D89-EBCC-476B-82D5-A8B109AB5A82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
   </si>
   <si>
     <t>不允許使用Html語法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一階段實作所有文章瀏覽及分頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,6 +238,15 @@
   </si>
   <si>
     <t>2018-08-13 停權會員、啟用會員 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 允許Html語法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 UI調整
+2018-08-13 加入分頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +718,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -740,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
@@ -760,19 +765,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="8"/>
     </row>
@@ -785,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>31</v>
@@ -797,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -824,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -851,10 +856,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
@@ -878,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -905,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>A7+1</f>
         <v>6</v>
@@ -930,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,10 +960,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -980,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1002,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1024,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1046,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>32</v>
@@ -1071,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1093,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1117,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1144,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1156,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
@@ -1169,10 +1174,10 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1183,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
@@ -1198,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1206,7 +1211,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="13"/>
       <c r="D20" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="18">
         <v>40</v>
@@ -1223,7 +1228,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="13"/>
       <c r="D21" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
@@ -1241,7 +1246,7 @@
       <c r="B22" s="18"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B1D89-EBCC-476B-82D5-A8B109AB5A82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D76F2E-70D7-4376-BCE0-7D5A236B7E48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,12 +241,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-08-13 允許Html語法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08-13 UI調整
+2018-08-13 UI顯示民國年
 2018-08-13 加入分頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 ViewModel允許Html語法(allowHtml)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -916,54 +917,58 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>53</v>
+      <c r="H8" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="3">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>52</v>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,37 +1229,45 @@
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="12">
+        <v>4</v>
+      </c>
+      <c r="B21" s="18">
+        <v>4</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="12">
+        <v>1</v>
+      </c>
+      <c r="B22" s="18">
+        <v>4</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D76F2E-70D7-4376-BCE0-7D5A236B7E48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC7795-7B27-4F70-A0C6-80C8A07286A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,11 @@
   </si>
   <si>
     <t>2018-08-13 ViewModel允許Html語法(allowHtml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 增加文章作者資訊顯示、修改UI按鈕及呈現條件判斷
+2018-08-13 修改文章權限判斷(作者本人及管理者)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +724,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -971,26 +976,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>35</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1241,18 +1251,18 @@
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" s="18">
         <v>4</v>
@@ -1263,11 +1273,11 @@
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC7795-7B27-4F70-A0C6-80C8A07286A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794FE86-D904-474C-B7C1-90FBA6605F08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,11 @@
   <si>
     <t>2018-08-13 增加文章作者資訊顯示、修改UI按鈕及呈現條件判斷
 2018-08-13 修改文章權限判斷(作者本人及管理者)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 刪除之前需要再確認一次才刪除
+2018-08-13 刪除文章，作者自己的文章應該要可以刪除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1003,26 +1008,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>35</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1239,45 +1249,37 @@
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18">
-        <v>4</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="13"/>
       <c r="D21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>3</v>
-      </c>
-      <c r="B22" s="18">
-        <v>4</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794FE86-D904-474C-B7C1-90FBA6605F08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699ECE1-E46B-4DB9-81E2-69325CC7DC59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t>2018-08-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-08-08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,6 +254,17 @@
   <si>
     <t>2018-08-13 刪除之前需要再確認一次才刪除
 2018-08-13 刪除文章，作者自己的文章應該要可以刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-08
+2018-08-14 增加SHA256
+2018-08-14 雜湊計算原先固定寫死SHA512，改吃設定值，並允許多組演算法
+2018-08-14 單元測試調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日工時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -870,7 +880,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
@@ -897,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -951,7 +961,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -978,7 +988,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1005,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1032,7 +1042,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1150,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,7 +1187,7 @@
         <v>35</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1205,7 +1215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1219,16 +1229,16 @@
         <v>25</v>
       </c>
       <c r="E19" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="9">
         <v>4</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>47</v>
+      <c r="H19" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1249,15 +1259,19 @@
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="18">
+        <v>2</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
@@ -1275,7 +1289,7 @@
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
@@ -1283,7 +1297,7 @@
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>
-        <v>Safe</v>
+        <v>Danger</v>
       </c>
       <c r="H22" s="17"/>
     </row>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699ECE1-E46B-4DB9-81E2-69325CC7DC59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592D5578-2546-418E-A36C-AF558F85B1F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>修改會員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>LayOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允許使用Html語法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,12 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-08-13 UI調整
-2018-08-13 UI顯示民國年
-2018-08-13 加入分頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08-13 ViewModel允許Html語法(allowHtml)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +255,27 @@
   </si>
   <si>
     <t>今日工時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-14 修改回覆、抽partial View與新增共用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-14 新增回覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 UI調整
+2018-08-13 UI顯示民國年
+2018-08-13 加入分頁
+2018-08-14 讀取回覆、隱藏回覆等等的前端操作(Jquery Template)
+2018-08-14 UI調整：文章、回覆時間規則調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-14 取得文章回覆API、調整Dapper Multi Mapping、修改文章列表Dapper語法
+2018-08-14 尚缺回覆的刪除按鈕事件處理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +306,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +316,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +414,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -766,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
@@ -786,19 +827,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="8"/>
     </row>
@@ -811,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>31</v>
@@ -823,10 +864,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -850,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -877,10 +918,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
@@ -897,17 +938,17 @@
       <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="31">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -931,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>A7+1</f>
         <v>6</v>
@@ -951,17 +992,17 @@
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="20">
-        <v>1</v>
+      <c r="E8" s="31">
+        <v>3</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -985,10 +1026,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1005,17 +1046,17 @@
       <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="31">
         <v>2</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1039,79 +1080,91 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="28">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="3">
+      <c r="E12" s="29">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>37</v>
+      <c r="G12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="3">
+      <c r="E13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
+      <c r="G13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>36</v>
+      <c r="E14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1133,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1150,17 +1203,17 @@
       <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="31">
         <v>3</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1184,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
@@ -1209,10 +1262,10 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
@@ -1223,12 +1276,12 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="31">
         <v>6</v>
       </c>
       <c r="F19" s="9">
@@ -1238,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1246,7 +1299,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="13"/>
       <c r="D20" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="18">
         <v>40</v>
@@ -1260,22 +1313,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="18">
         <f>SUM(E3:E19)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F21" s="22">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
@@ -1285,19 +1338,19 @@
       <c r="B22" s="18"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="15">
         <f>E20-E21</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G22" s="16" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>
-        <v>Danger</v>
+        <v>Safe</v>
       </c>
       <c r="H22" s="17"/>
     </row>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592D5578-2546-418E-A36C-AF558F85B1F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F68674-0C32-4185-80CC-7A52EB7B21C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,14 +268,14 @@
   <si>
     <t>2018-08-13 UI調整
 2018-08-13 UI顯示民國年
-2018-08-13 加入分頁
+2018-08-13 加入分頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-14 取得文章回覆API、調整Dapper Multi Mapping、修改文章列表Dapper語法
+2018-08-14 尚缺回覆的刪除按鈕事件處理
 2018-08-14 讀取回覆、隱藏回覆等等的前端操作(Jquery Template)
 2018-08-14 UI調整：文章、回覆時間規則調整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-08-14 取得文章回覆API、調整Dapper Multi Mapping、修改文章列表Dapper語法
-2018-08-14 尚缺回覆的刪除按鈕事件處理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +780,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -978,7 +978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>A7+1</f>
         <v>6</v>
@@ -992,8 +992,8 @@
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="31">
-        <v>3</v>
+      <c r="E8" s="20">
+        <v>1</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1101,7 +1101,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="28">
         <v>4</v>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F68674-0C32-4185-80CC-7A52EB7B21C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDB420-BF66-4028-9923-46815E302665}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日工時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08-14 修改回覆、抽partial View與新增共用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +268,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018-08-14 刪除功能實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018-08-14 取得文章回覆API、調整Dapper Multi Mapping、修改文章列表Dapper語法
 2018-08-14 尚缺回覆的刪除按鈕事件處理
 2018-08-14 讀取回覆、隱藏回覆等等的前端操作(Jquery Template)
-2018-08-14 UI調整：文章、回覆時間規則調整</t>
+2018-08-14 UI調整：文章、回覆時間規則調整
+2018-08-14 已刪除的回覆不需抓出來給前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +307,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,12 +326,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -344,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,9 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,20 +406,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -779,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -820,426 +798,431 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="25">
         <v>7</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>57</v>
+      <c r="H8" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>7</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="8">
         <v>4</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>0.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>2</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>56</v>
+      <c r="H13" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>0.5</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>55</v>
+      <c r="H14" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="25">
         <v>3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1257,7 +1240,7 @@
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="3">
         <v>4</v>
       </c>
@@ -1269,98 +1252,94 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="25">
         <v>6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>4</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>40</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f>SUM(F2:F19)</f>
         <v>36</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="18">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="18" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <f>SUM(E3:E19)</f>
-        <v>35</v>
-      </c>
-      <c r="F21" s="22">
+        <v>36</v>
+      </c>
+      <c r="F21" s="21">
         <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>31</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <f>E20-E21</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>5</v>
-      </c>
-      <c r="G22" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="G22" s="15" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>
         <v>Safe</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDB420-BF66-4028-9923-46815E302665}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94C81DE-3059-40E1-94AF-9884BA629B02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-08-08 LOGO區塊、新增文章按鈕、會員區塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,17 +229,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-08-13 ViewModel允許Html語法(allowHtml)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08-13 增加文章作者資訊顯示、修改UI按鈕及呈現條件判斷
 2018-08-13 修改文章權限判斷(作者本人及管理者)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-08-13 刪除之前需要再確認一次才刪除
-2018-08-13 刪除文章，作者自己的文章應該要可以刪除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,17 +245,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-08-14 新增回覆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08-13 UI調整
 2018-08-13 UI顯示民國年
 2018-08-13 加入分頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-08-14 刪除功能實作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,6 +256,32 @@
 2018-08-14 讀取回覆、隱藏回覆等等的前端操作(Jquery Template)
 2018-08-14 UI調整：文章、回覆時間規則調整
 2018-08-14 已刪除的回覆不需抓出來給前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-08 LOGO區塊、新增文章按鈕、會員區塊
+2018-08-15 增加文章、回復數量顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 ViewModel允許Html語法(allowHtml)
+2018-08-15 新增文章需刷新會員文章數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-14 刪除功能實作
+2018-08-15 刪除回覆若目前登錄為本人，需刷新會員回覆數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-14 新增回覆
+2018-08-15 新增回覆需刷新會員文章數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-13 刪除之前需要再確認一次才刪除
+2018-08-13 刪除文章，作者自己的文章應該要可以刪除
+2018-08-15 刪除文章需一併刪除底下的回覆，並刷新會員文章數量資訊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -785,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
@@ -811,7 +816,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -821,7 +826,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>1</v>
@@ -844,8 +849,8 @@
       <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
+      <c r="H3" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -899,7 +904,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
@@ -926,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -953,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
@@ -980,10 +985,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1006,8 +1011,8 @@
       <c r="G9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>50</v>
+      <c r="H9" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1034,10 +1039,10 @@
         <v>34</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1061,7 +1066,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.3">
@@ -1088,10 +1093,10 @@
         <v>36</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1114,8 +1119,8 @@
       <c r="G13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>55</v>
+      <c r="H13" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1142,10 +1147,10 @@
         <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1168,8 +1173,8 @@
       <c r="G15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>57</v>
+      <c r="H15" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1196,7 +1201,7 @@
         <v>34</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1223,7 +1228,7 @@
         <v>34</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1274,7 +1279,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1282,7 +1287,7 @@
       <c r="B20" s="17"/>
       <c r="C20" s="12"/>
       <c r="D20" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="17">
         <v>40</v>
@@ -1299,7 +1304,7 @@
       <c r="B21" s="17"/>
       <c r="C21" s="12"/>
       <c r="D21" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="17">
         <f>SUM(E3:E19)</f>
@@ -1317,7 +1322,7 @@
       <c r="B22" s="17"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="14">
         <f>E20-E21</f>

--- a/Document/MessageBoard.xlsx
+++ b/Document/MessageBoard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94C81DE-3059-40E1-94AF-9884BA629B02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8144F93-3430-48F9-9A80-5A11A0C40CB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二階段需實做特定會員的發布文章或回文文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手動驗證、檢查DB</t>
   </si>
   <si>
@@ -282,6 +278,10 @@
     <t>2018-08-13 刪除之前需要再確認一次才刪除
 2018-08-13 刪除文章，作者自己的文章應該要可以刪除
 2018-08-15 刪除文章需一併刪除底下的回覆，並刷新會員文章數量資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-15 瀏覽會員文章、回覆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,10 +392,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -762,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B8FD0-E9F2-4AD9-A5B4-87DB59780CD2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
@@ -810,19 +806,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -835,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -847,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -874,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -901,10 +897,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.3">
@@ -921,17 +917,17 @@
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>7</v>
       </c>
       <c r="F6" s="8">
         <v>4</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
@@ -982,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1009,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1029,17 +1025,17 @@
       <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.3">
@@ -1063,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.3">
@@ -1090,10 +1086,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1117,10 +1113,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1144,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1171,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.3">
@@ -1191,17 +1187,17 @@
       <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>3</v>
       </c>
       <c r="F16" s="8">
         <v>2</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1225,35 +1221,37 @@
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <v>11</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="3">
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>33</v>
+      <c r="G18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.3">
@@ -1264,12 +1262,12 @@
         <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>6</v>
       </c>
       <c r="F19" s="8">
@@ -1278,8 +1276,8 @@
       <c r="G19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>50</v>
+      <c r="H19" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1287,7 +1285,7 @@
       <c r="B20" s="17"/>
       <c r="C20" s="12"/>
       <c r="D20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="17">
         <v>40</v>
@@ -1304,15 +1302,15 @@
       <c r="B21" s="17"/>
       <c r="C21" s="12"/>
       <c r="D21" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="17">
         <f>SUM(E3:E19)</f>
+        <v>39</v>
+      </c>
+      <c r="F21" s="20">
+        <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
         <v>36</v>
-      </c>
-      <c r="F21" s="21">
-        <f>IF(E3,F3,0)+IF(E4,F4,0)+IF(E5,F5,0)+IF(E6,F6,0)+IF(E7,F7,0)+IF(E8,F8,0)+IF(E9,F9,0)+IF(E10,F10,0)+IF(E11,F11,0)+IF(E12,F12,0)+IF(E13,F13,0)+IF(E14,F14,0)+IF(E15,F15,0)+IF(E16,F16,0)+IF(E17,F17,0)+IF(E18,F18,0)+IF(E19,F19,0)</f>
-        <v>32</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
@@ -1322,15 +1320,15 @@
       <c r="B22" s="17"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="14">
         <f>E20-E21</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f>F20-F21</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="15" t="str">
         <f>IF(F22&lt;=E22,"Safe","Danger")</f>
